--- a/ready_for_tb_import/formatted_tb_ABC Subsidiary.xlsx
+++ b/ready_for_tb_import/formatted_tb_ABC Subsidiary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>account_number</t>
   </si>
@@ -28,22 +28,79 @@
     <t>1010.ABC</t>
   </si>
   <si>
-    <t>1250.ABC</t>
-  </si>
-  <si>
-    <t>12000.ABC</t>
-  </si>
-  <si>
-    <t>1261.ABC</t>
-  </si>
-  <si>
-    <t>20102.ABC</t>
-  </si>
-  <si>
-    <t>30301.ABC</t>
-  </si>
-  <si>
-    <t>30302.ABC</t>
+    <t>1210.ABC</t>
+  </si>
+  <si>
+    <t>13011.1.ABC</t>
+  </si>
+  <si>
+    <t>13011.3.ABC</t>
+  </si>
+  <si>
+    <t>13012.ABC</t>
+  </si>
+  <si>
+    <t>13013.ABC</t>
+  </si>
+  <si>
+    <t>13061.ABC</t>
+  </si>
+  <si>
+    <t>13064.ABC</t>
+  </si>
+  <si>
+    <t>13065.ABC</t>
+  </si>
+  <si>
+    <t>13022.ABC</t>
+  </si>
+  <si>
+    <t>14002.ABC</t>
+  </si>
+  <si>
+    <t>14006.ABC</t>
+  </si>
+  <si>
+    <t>14007.ABC</t>
+  </si>
+  <si>
+    <t>14012.ABC</t>
+  </si>
+  <si>
+    <t>14013.ABC</t>
+  </si>
+  <si>
+    <t>14014.ABC</t>
+  </si>
+  <si>
+    <t>14015.ABC</t>
+  </si>
+  <si>
+    <t>14021.ABC</t>
+  </si>
+  <si>
+    <t>14022.ABC</t>
+  </si>
+  <si>
+    <t>14098.ABC</t>
+  </si>
+  <si>
+    <t>20000.ABC</t>
+  </si>
+  <si>
+    <t>20000.1.ABC</t>
+  </si>
+  <si>
+    <t>20051.ABC</t>
+  </si>
+  <si>
+    <t>2333.ABC</t>
+  </si>
+  <si>
+    <t>20101.ABC</t>
+  </si>
+  <si>
+    <t>20401.ABC</t>
   </si>
   <si>
     <t>60400.ABC</t>
@@ -52,28 +109,82 @@
     <t>67300.ABC</t>
   </si>
   <si>
-    <t>70000.ABC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example Bank - Business Banking </t>
-  </si>
-  <si>
-    <t>Accounts Receivable</t>
-  </si>
-  <si>
-    <t>Undeposited Funds</t>
-  </si>
-  <si>
-    <t>Loan Receivable - ABC</t>
-  </si>
-  <si>
-    <t>Due To/(From) - FGH</t>
-  </si>
-  <si>
-    <t>Capital Account - Jane Doe</t>
-  </si>
-  <si>
-    <t>Member Draw - Jane Doe</t>
+    <t>69000.ABC</t>
+  </si>
+  <si>
+    <t>Example Bank - Business Banking</t>
+  </si>
+  <si>
+    <t>Cash In Transit</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Assignment Fee</t>
+  </si>
+  <si>
+    <t>Closing Cost</t>
+  </si>
+  <si>
+    <t>Property Taxes</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Origination Fee</t>
+  </si>
+  <si>
+    <t>Property Insurance</t>
+  </si>
+  <si>
+    <t>Surveying</t>
+  </si>
+  <si>
+    <t>Government fees</t>
+  </si>
+  <si>
+    <t>Ecological</t>
+  </si>
+  <si>
+    <t>Admin. Costs</t>
+  </si>
+  <si>
+    <t>Consultants</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Environmental</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Closing Costs</t>
+  </si>
+  <si>
+    <t>Cap. Costs from DEF</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>UNAPPROVED A/P</t>
+  </si>
+  <si>
+    <t>Contractor X, LLC</t>
+  </si>
+  <si>
+    <t>Accrued Interest Payable</t>
+  </si>
+  <si>
+    <t>Due To/(From) - YZ Subsidiary</t>
+  </si>
+  <si>
+    <t>Note Payable - John Doe</t>
   </si>
   <si>
     <t>Bank Service Charges</t>
@@ -82,7 +193,7 @@
     <t>Management Fee Exp.</t>
   </si>
   <si>
-    <t>Interest Income</t>
+    <t>Political Contribution</t>
   </si>
 </sst>
 </file>
@@ -440,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,10 +573,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>700</v>
+        <v>716.8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -473,7 +584,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -484,10 +595,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3561613.12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -495,10 +606,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>10000000</v>
+        <v>131260</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -506,10 +617,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C6">
-        <v>-30000</v>
+        <v>48155.45</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -517,10 +628,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C7">
-        <v>-10000000</v>
+        <v>537.42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -528,10 +639,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C8">
-        <v>100000</v>
+        <v>245590.42</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -539,10 +650,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C9">
-        <v>200</v>
+        <v>14600</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -550,10 +661,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C10">
-        <v>30000</v>
+        <v>39700</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -561,10 +672,219 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>1252.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>419508.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13">
+        <v>63262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>14701.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>8262.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>23560.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18">
+        <v>55140.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>42555.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>28575.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="C11">
-        <v>-100900</v>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>113822.81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>-66992.31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23">
+        <v>-103956</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>-4683500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25">
+        <v>-24945.21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>1043861.84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <v>-1000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
